--- a/data/Subset 1/Problem 1 part b_.xlsx
+++ b/data/Subset 1/Problem 1 part b_.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>PATTY FERRANT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ANTOINETTE VILLARIN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
